--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{697893BD-E50C-4362-AEB5-65B8749E12FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8C641C-D82B-4EA9-A159-8269A06466A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B23257CA-4ECB-4F32-BAD0-0034EAE0AC4E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -126,12 +126,6 @@
     <t>4. Поле заполняется</t>
   </si>
   <si>
-    <t>5. Ввести данные в поле, состоящие из 11 символов</t>
-  </si>
-  <si>
-    <t>5. Ошибка - "Значение поля не может быть длиннее 10 символов"</t>
-  </si>
-  <si>
     <t>Ввод граничных значений в поле ПАРОЛЬ</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
   </si>
   <si>
     <t>5. Ввести данные в поле, состоящие из 31 символов</t>
-  </si>
-  <si>
-    <t>5. Ошибка - "Значение поля не может быть длиннее 30 символов"</t>
   </si>
   <si>
     <t>Проверка фильтров</t>
@@ -210,25 +201,13 @@
     <t>2. Ссылка работает, открывается корректный контент</t>
   </si>
   <si>
-    <t>Проверка функционала раздела с новостями</t>
-  </si>
-  <si>
     <t>2. Кликнуть на кнопку "создать новость"</t>
   </si>
   <si>
     <t>2. Открывается форма с необходимыми для заполнения полями</t>
   </si>
   <si>
-    <t>3. Заполняем нужные поля и нажимаем на кнопку "сохранить"</t>
-  </si>
-  <si>
     <t>3. Новость успешно создается</t>
-  </si>
-  <si>
-    <t>4. Кликаем на новость с целью отредактировать ее</t>
-  </si>
-  <si>
-    <t>4. Открывается форма, в которой есть возможность внести изменения в новость</t>
   </si>
   <si>
     <t>5. Вносим в новость необходимые изменения, нажимаем кнопку "сохранить"</t>
@@ -237,10 +216,392 @@
     <t>5. Новость успешно редактируется и сохраняется</t>
   </si>
   <si>
-    <t>6. Нажимаем на иконку с урной</t>
+    <t>Авторизация</t>
   </si>
   <si>
-    <t>6. Новость успешно удаляется</t>
+    <t>Ввод некорректных данных</t>
+  </si>
+  <si>
+    <t>2. Оставить оба поля пустыми и нажать на кнопку "Войти"</t>
+  </si>
+  <si>
+    <t>2. Ошибка - "Введены некорректные данные"</t>
+  </si>
+  <si>
+    <t>3. Оставить поле "Логин" пустым и нажать на кнопку "Войти"</t>
+  </si>
+  <si>
+    <t>3. Ошибка - "Введены некорректные данные"</t>
+  </si>
+  <si>
+    <t>4. Оставить поле "Пароль" пустым и нажать на кнопку "Войти"</t>
+  </si>
+  <si>
+    <t>4. Ошибка - "Введены некорректные данные"</t>
+  </si>
+  <si>
+    <t>5. Ввeсти корректный логин и некорректный пароль</t>
+  </si>
+  <si>
+    <t>5. Ошибка - "Введены некорректные данные"</t>
+  </si>
+  <si>
+    <t>6. Ввeсти некорректный логин, но корректный пароль</t>
+  </si>
+  <si>
+    <t>6. Ошибка - "Введены некорректные данные"</t>
+  </si>
+  <si>
+    <t>7. Ввeсти некорректный логин и некорректный пароль</t>
+  </si>
+  <si>
+    <t>7. Ошибка - "Введены некорректные данные"</t>
+  </si>
+  <si>
+    <t>8. В поле логина ввeсти корректный пароль, а в поле пароля ввести корректный логин</t>
+  </si>
+  <si>
+    <t>8. Ошибка - "Введены некорректные данные"</t>
+  </si>
+  <si>
+    <t>Ввод валидных значений в поле ЛОГИН</t>
+  </si>
+  <si>
+    <t>Регистрация нового пользователя</t>
+  </si>
+  <si>
+    <t>2. Ввести данные в поле на латинице в диапазоне от 6 до 10 символов</t>
+  </si>
+  <si>
+    <t>2. Поле заполняется</t>
+  </si>
+  <si>
+    <t>3. Ввести данные в поле на латинице, содержащие цифры и разрешенные символы в диапазоне от 6 до 10 символов</t>
+  </si>
+  <si>
+    <t>4. Ввести цифры в диапазоне от 6 до 10 символов</t>
+  </si>
+  <si>
+    <t>5. Ввести цифры и разрешенные символы в диапазоне от 6 до 10 символов</t>
+  </si>
+  <si>
+    <t>5. Поле заполняется</t>
+  </si>
+  <si>
+    <t>Ввод невалидных значений в поле ЛОГИН</t>
+  </si>
+  <si>
+    <t>2. Оставить поле пустым</t>
+  </si>
+  <si>
+    <t>2. Ошибка - "Заполнены не все обязательные поля"</t>
+  </si>
+  <si>
+    <t>3. Ввести данные в поле с пробелом</t>
+  </si>
+  <si>
+    <t>4. Ввести данные в поле с точкой на конце</t>
+  </si>
+  <si>
+    <t>5. Ввести в поле данные с запрещенными символами (амперсанд (&amp;), знаки равенства (=) и сложения (+), скобки (&lt;&gt;), запятую (,), символ подчеркивания (_), апостроф ('), дефис (-) и несколько точек подряд)</t>
+  </si>
+  <si>
+    <t>5. Ввести данные в поле, состоящие из 9 символов</t>
+  </si>
+  <si>
+    <t>6. Ввести данные в поле, состоящие из 10 символов</t>
+  </si>
+  <si>
+    <t>6. Поле заполняется</t>
+  </si>
+  <si>
+    <t>7. Ввести данные в поле, состоящие из 11 символов</t>
+  </si>
+  <si>
+    <t>7. Ошибка - "Значение поля не может быть длиннее 10 символов"</t>
+  </si>
+  <si>
+    <t>Ввод валидных значений в поле ПАРОЛЬ</t>
+  </si>
+  <si>
+    <t>2. Ввести данные в поле на латинице в диапазоне от 8 до 32 символов</t>
+  </si>
+  <si>
+    <t>3. Ввести данные в поле на латинице, содержащие цифры и разрешенные символы в диапазоне от 8 до 32 символов</t>
+  </si>
+  <si>
+    <t>4. Ввести цифры в диапазоне от 8 до 32 символов</t>
+  </si>
+  <si>
+    <t>5. Ввести цифры и разрешенные символы в диапазоне от 8 до 32 символов</t>
+  </si>
+  <si>
+    <t>Ввод невалидных значений в поле ПАРОЛЬ</t>
+  </si>
+  <si>
+    <t>3. Ввести в поле данные с запрещенными символами (пробел, двоеточие или кавычками)</t>
+  </si>
+  <si>
+    <t>6. Ввести данные в поле, состоящие из 32 символов</t>
+  </si>
+  <si>
+    <t>7. Ввести данные в поле, состоящие из 33 символов</t>
+  </si>
+  <si>
+    <t>7. Ошибка - "Значение поля не может быть длиннее 32 символов"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввод валидных значений в поле формы создания новости ЗАГОЛОВОК
+</t>
+  </si>
+  <si>
+    <t>Создание новости</t>
+  </si>
+  <si>
+    <t>3. Ввести данные в поле на кириллице в диапазоне от 8 до 150 символов, заполнить остальные поля валидными значениями и нажать на кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>4. Ввести данные в поле на кириллице, содержащие цифры и разрешенные символы в диапазоне от 8 до 150 символов, заполнить остальные поля валидными значениями и нажать на кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>4. Новость успешно создается</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввод невалидных значений в поле формы создания новости ЗАГОЛОВОК
+</t>
+  </si>
+  <si>
+    <t>3. Ввести данные в поле на латинице в диапазоне от 8 до 150 символов, заполнить остальные поля валидными значениями и нажать на кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>4. Ввести данные в поле, содержащие только цифры от 8 до 150 символов, заполнить остальные поля валидными значениями и нажать на кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>5. Оставить поле пустым, заполнить остальные поля валидными значениями и нажать на кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>6. Ввести только пробелы, заполнить остальные поля валидными значениями и нажать на кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>Ввод граничных значений в поле ЗАГОЛОВОК</t>
+  </si>
+  <si>
+    <t>3. Ввести данные в поле, состоящие из 7 символов</t>
+  </si>
+  <si>
+    <t>3. Ошибка - "Значение поля не может быть короче 8 символов"</t>
+  </si>
+  <si>
+    <t>4. Ввести данные в поле, состоящие из 8 символов</t>
+  </si>
+  <si>
+    <t>6. Ввести данные в поле, состоящие из 149 символов</t>
+  </si>
+  <si>
+    <t>7. Ввести данные в поле, состоящие из 150 символов</t>
+  </si>
+  <si>
+    <t>7. Поле заполняется</t>
+  </si>
+  <si>
+    <t>8. Ввести данные в поле, состоящие из 151 символов</t>
+  </si>
+  <si>
+    <t>8. Ошибка - "Значение поля не может быть длиннее 150 символов"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввод валидных значений в поле формы создания новости ОПИСАНИЕ
+</t>
+  </si>
+  <si>
+    <t>3. Ввести данные в поле на кириллице в диапазоне от 8 до 1000 символов, заполнить остальные поля валидными значениями и нажать на кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>4. Ввести данные в поле на кириллице, содержащие цифры и разрешенные символы в диапазоне от 8 до 1000 символов, заполнить остальные поля валидными значениями и нажать на кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввод невалидных значений в поле формы создания новости ОПИСАНИЕ
+</t>
+  </si>
+  <si>
+    <t>3. Ввести данные в поле на латинице в диапазоне от 8 до 1000 символов, заполнить остальные поля валидными значениями и нажать на кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>4. Ввести данные в поле, содержащие только цифры от 8 до 1000 символов, заполнить остальные поля валидными значениями и нажать на кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>5. Ввести данные в поле на латинице, содержащие цифры в диапазоне от 8 до 1000 символов, заполнить остальные поля валидными значениями и нажать на кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>6. Оставить поле пустым, заполнить остальные поля валидными значениями и нажать на кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>7. Ввести только пробелы, заполнить остальные поля валидными значениями и нажать на кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>Ввод граничных значений в поле ОПИСАНИЕ</t>
+  </si>
+  <si>
+    <t>6. Ввести данные в поле, состоящие из 999 символов</t>
+  </si>
+  <si>
+    <t>7. Ввести данные в поле, состоящие из 1000 символов</t>
+  </si>
+  <si>
+    <t>8. Ввести данные в поле, состоящие из 1001 символов</t>
+  </si>
+  <si>
+    <t>8. Ошибка - "Значение поля не может быть длиннее 1000 символа"</t>
+  </si>
+  <si>
+    <t>Полоса прокрутки в поле ОПИСАНИЕ</t>
+  </si>
+  <si>
+    <t>3. Ввести данные в поле, которые целиком на отображается в видиомй части поля</t>
+  </si>
+  <si>
+    <t>3. Появляется полоса прокрутки</t>
+  </si>
+  <si>
+    <t>Вставка данных из буфера обмена в поле ОПИСАНИЕ</t>
+  </si>
+  <si>
+    <t>2. Кликнуть на кнопку "Создать новость"</t>
+  </si>
+  <si>
+    <t>3. Вставитьданные в поле из буфера обмена</t>
+  </si>
+  <si>
+    <t>3. Данные вставляются</t>
+  </si>
+  <si>
+    <t>Редактирование новости</t>
+  </si>
+  <si>
+    <t>2. Перейти на вкладку "Новости"</t>
+  </si>
+  <si>
+    <t>2. Вкладка открывается</t>
+  </si>
+  <si>
+    <t>3. Кликнуть на иконку "Редактировать"</t>
+  </si>
+  <si>
+    <t>3. Открывается список новостей, доступных для редактирования</t>
+  </si>
+  <si>
+    <t>4. Кликаем иконку "Редактировать" на нужной новости</t>
+  </si>
+  <si>
+    <t>4. Открывается форма для редактирования</t>
+  </si>
+  <si>
+    <t>Удаление новости</t>
+  </si>
+  <si>
+    <t>4. Кликаем иконку с урной на нужной новости</t>
+  </si>
+  <si>
+    <t>4. Сообщение - "Вы уверены, что хотите безвозвратно удалить документ? Данные изменения нельзя будет изменить в будущем</t>
+  </si>
+  <si>
+    <t>5. Подтверждаем удаление</t>
+  </si>
+  <si>
+    <t>5. Новость удаляется</t>
+  </si>
+  <si>
+    <t>Ввод валидных данных в поле КАЛЕНДАРЬ</t>
+  </si>
+  <si>
+    <t>Создание/редактирование новости</t>
+  </si>
+  <si>
+    <t>3. Кликнуть на иконку "Создать/Редактировать" новость</t>
+  </si>
+  <si>
+    <t>3. Открывается форма создания/редактирования новости</t>
+  </si>
+  <si>
+    <t>4. Кликаем на поле "дата публикации"</t>
+  </si>
+  <si>
+    <t>4. Календарь доступен для использование и открывается корректно</t>
+  </si>
+  <si>
+    <t>5. Выбираем валидную дату, заполняем остальные поля валидными значениями и нажимаем кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>5. Дата корректно отображается в поле ввода, новость создается</t>
+  </si>
+  <si>
+    <t>Ввод невалидных данных в поле КАЛЕНДАРЬ</t>
+  </si>
+  <si>
+    <t>5. Выбираем дату из будущего и нажимаем кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>5. Ошибка - "Дата не может быть в будущем"</t>
+  </si>
+  <si>
+    <t>6. Выбираем раннюю дату и нажимаем кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>6. Поле неактивно и выделено серым цветом</t>
+  </si>
+  <si>
+    <t>7. Оставляем поле пустым и нажимаем кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>7. Ошибка - "Не заполнено поле "дата публикации"</t>
+  </si>
+  <si>
+    <t>Ввод валидных данных в поле ВРЕМЯ</t>
+  </si>
+  <si>
+    <t>4. Кликаем на поле "время"</t>
+  </si>
+  <si>
+    <t>4. Часы доступны для использование и открываются корректно</t>
+  </si>
+  <si>
+    <t>5. Выбираем валидное время, заполняем остальные поля валидными значениями и нажимаем кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>5. Время корректно отображается в поле ввода, новость создается</t>
+  </si>
+  <si>
+    <t>Ввод невалидных данных в поле ВРЕМЯ</t>
+  </si>
+  <si>
+    <t>5. Выбираем время из будущего и нажимаем кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>5. Ошибка - "Время не может быть в будущем"</t>
+  </si>
+  <si>
+    <t>6. Выбираем раннее время и нажимаем кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>6. Ошибка - "Время не может быть раньше текущего"</t>
+  </si>
+  <si>
+    <t>7. Ошибка - "Не заполнено поле "время"</t>
+  </si>
+  <si>
+    <t>КАТЕГОРИЯ</t>
+  </si>
+  <si>
+    <t>4. Кликаем на поле "категория"</t>
+  </si>
+  <si>
+    <t>4. Категории доступны для использование и открываются корректно</t>
+  </si>
+  <si>
+    <t>5. Выбираем категорию из выпадающего списка и нажимаем кнопку "сохранить"</t>
+  </si>
+  <si>
+    <t>5. Категория отображается корректно, новость создается/редактируется</t>
   </si>
 </sst>
 </file>
@@ -264,7 +625,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +659,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -439,6 +806,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,23 +1124,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B85F16-F40B-4D4C-8CB5-CE7F61802740}">
-  <dimension ref="A1:Z903"/>
+  <dimension ref="A1:Z921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +1189,9 @@
       <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
@@ -921,11 +1293,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="D5" s="12" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>9</v>
@@ -956,17 +1330,17 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+    <row r="6" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="8" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -988,25 +1362,17 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="8" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1028,17 +1394,17 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+    <row r="8" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="8" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1060,25 +1426,17 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>4</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="9" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="8" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1107,10 +1465,10 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="8" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1139,10 +1497,10 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="8" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1164,17 +1522,17 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+    <row r="12" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="8" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1196,17 +1554,27 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="F13" s="8" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1228,28 +1596,20 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>5</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="14" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="8" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1268,17 +1628,17 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="8" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1307,10 +1667,10 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="8" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1333,16 +1693,16 @@
       <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="8" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1364,17 +1724,27 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
     </row>
-    <row r="18" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="F18" s="8" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1396,25 +1766,17 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>6</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="19" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="8" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1436,17 +1798,17 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="8" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -1469,24 +1831,16 @@
       <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>7</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="A21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="8" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -1508,17 +1862,17 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="8" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -1542,12 +1896,14 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="D23" s="12" t="s">
         <v>8</v>
       </c>
@@ -1587,10 +1943,10 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="8" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -1612,17 +1968,17 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+    <row r="25" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="8" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -1644,25 +2000,17 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>9</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="26" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="8" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -1684,17 +2032,17 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="8" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -1717,16 +2065,16 @@
       <c r="Z27" s="7"/>
     </row>
     <row r="28" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="8" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -1748,25 +2096,17 @@
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="1:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>10</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="29" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="8" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -1788,17 +2128,27 @@
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
     </row>
-    <row r="30" spans="1:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>6</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="F30" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -1820,28 +2170,20 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
-        <v>11</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="31" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="8" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -1860,17 +2202,17 @@
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="8" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -1892,17 +2234,17 @@
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="8" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -1925,16 +2267,16 @@
       <c r="Z33" s="7"/>
     </row>
     <row r="34" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="8" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -1956,17 +2298,27 @@
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
     </row>
-    <row r="35" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>7</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="F35" s="8" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -1989,16 +2341,16 @@
       <c r="Z35" s="7"/>
     </row>
     <row r="36" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
       <c r="F36" s="8" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -2020,14 +2372,18 @@
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+    <row r="37" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -2049,13 +2405,27 @@
       <c r="Z37" s="7"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="A38" s="9">
+        <v>8</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -2076,14 +2446,18 @@
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+    <row r="39" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -2104,14 +2478,18 @@
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+    <row r="40" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -2132,14 +2510,18 @@
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+    <row r="41" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -2160,14 +2542,18 @@
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+    <row r="42" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -2188,14 +2574,18 @@
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+    <row r="43" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -2216,14 +2606,18 @@
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+    <row r="44" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -2245,13 +2639,27 @@
       <c r="Z44" s="7"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="A45" s="9">
+        <v>9</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -2272,14 +2680,18 @@
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+    <row r="46" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -2300,14 +2712,18 @@
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+    <row r="47" spans="1:26" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -2328,14 +2744,18 @@
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+    <row r="48" spans="1:26" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -2357,13 +2777,27 @@
       <c r="Z48" s="7"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="A49" s="9">
+        <v>10</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -2384,14 +2818,18 @@
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+    <row r="50" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -2412,14 +2850,18 @@
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+    <row r="51" spans="1:26" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -2440,14 +2882,18 @@
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+    <row r="52" spans="1:26" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -2468,14 +2914,18 @@
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+    <row r="53" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -2496,14 +2946,18 @@
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+    <row r="54" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -2525,13 +2979,27 @@
       <c r="Z54" s="7"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="A55" s="9">
+        <v>11</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -2552,14 +3020,18 @@
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+    <row r="56" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -2580,14 +3052,18 @@
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+    <row r="57" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -2608,14 +3084,18 @@
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
+    <row r="58" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -2636,14 +3116,18 @@
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+    <row r="59" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -2664,14 +3148,18 @@
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+    <row r="60" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -2692,14 +3180,18 @@
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+    <row r="61" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -2720,14 +3212,18 @@
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+    <row r="62" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -2749,13 +3245,27 @@
       <c r="Z62" s="7"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="A63" s="9">
+        <v>12</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -2776,14 +3286,18 @@
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+    <row r="64" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -2804,14 +3318,18 @@
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
+    <row r="65" spans="1:26" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -2832,14 +3350,18 @@
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+    <row r="66" spans="1:26" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="11"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -2861,13 +3383,27 @@
       <c r="Z66" s="7"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="A67" s="9">
+        <v>13</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -2888,14 +3424,18 @@
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+    <row r="68" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
@@ -2916,14 +3456,18 @@
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
+    <row r="69" spans="1:26" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
@@ -2944,14 +3488,18 @@
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
+    <row r="70" spans="1:26" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="10"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -2972,14 +3520,18 @@
       <c r="Y70" s="7"/>
       <c r="Z70" s="7"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
+    <row r="71" spans="1:26" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -3000,14 +3552,18 @@
       <c r="Y71" s="7"/>
       <c r="Z71" s="7"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
+    <row r="72" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -3028,14 +3584,18 @@
       <c r="Y72" s="7"/>
       <c r="Z72" s="7"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
+    <row r="73" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="11"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -3057,13 +3617,27 @@
       <c r="Z73" s="7"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
+      <c r="A74" s="9">
+        <v>14</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
@@ -3084,14 +3658,18 @@
       <c r="Y74" s="7"/>
       <c r="Z74" s="7"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
+    <row r="75" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -3112,14 +3690,18 @@
       <c r="Y75" s="7"/>
       <c r="Z75" s="7"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
+    <row r="76" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
@@ -3140,14 +3722,18 @@
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
+    <row r="77" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="10"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
@@ -3168,14 +3754,18 @@
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+    <row r="78" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="10"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
@@ -3196,14 +3786,18 @@
       <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
+    <row r="79" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
@@ -3224,14 +3818,18 @@
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
+    <row r="80" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
@@ -3252,14 +3850,18 @@
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
+    <row r="81" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="11"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
@@ -3281,13 +3883,27 @@
       <c r="Z81" s="7"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
+      <c r="A82" s="9">
+        <v>15</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -3308,14 +3924,18 @@
       <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
+    <row r="83" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="10"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
@@ -3336,14 +3956,18 @@
       <c r="Y83" s="7"/>
       <c r="Z83" s="7"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
+    <row r="84" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="11"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
@@ -3365,13 +3989,27 @@
       <c r="Z84" s="7"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
+      <c r="A85" s="9">
+        <v>16</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
@@ -3392,14 +4030,18 @@
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
+    <row r="86" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
@@ -3421,13 +4063,17 @@
       <c r="Z86" s="7"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
@@ -3449,13 +4095,25 @@
       <c r="Z87" s="7"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
+      <c r="A88" s="9">
+        <v>17</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
@@ -3477,13 +4135,17 @@
       <c r="Z88" s="7"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
@@ -3504,14 +4166,18 @@
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
+    <row r="90" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="10"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
@@ -3532,14 +4198,18 @@
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
+    <row r="91" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="10"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
@@ -3560,14 +4230,18 @@
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
+    <row r="92" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="11"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
@@ -3589,13 +4263,25 @@
       <c r="Z92" s="7"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
+      <c r="A93" s="9">
+        <v>18</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
@@ -3617,13 +4303,17 @@
       <c r="Z93" s="7"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
@@ -3644,14 +4334,18 @@
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
+    <row r="95" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="10"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
@@ -3672,14 +4366,18 @@
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
+    <row r="96" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="10"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
@@ -3701,13 +4399,17 @@
       <c r="Z96" s="7"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
@@ -3729,13 +4431,27 @@
       <c r="Z97" s="7"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
+      <c r="A98" s="9">
+        <v>19</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
@@ -3757,13 +4473,17 @@
       <c r="Z98" s="7"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
@@ -3784,14 +4504,18 @@
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
+    <row r="100" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="10"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
@@ -3812,14 +4536,18 @@
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
+    <row r="101" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="10"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
@@ -3840,14 +4568,18 @@
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
+    <row r="102" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="11"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
@@ -3869,13 +4601,27 @@
       <c r="Z102" s="7"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
+      <c r="A103" s="9">
+        <v>20</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
@@ -3897,13 +4643,17 @@
       <c r="Z103" s="7"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
@@ -3924,14 +4674,18 @@
       <c r="Y104" s="7"/>
       <c r="Z104" s="7"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
+    <row r="105" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="10"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
@@ -3952,14 +4706,18 @@
       <c r="Y105" s="7"/>
       <c r="Z105" s="7"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
+    <row r="106" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="10"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
@@ -3980,14 +4738,18 @@
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
+    <row r="107" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="10"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
@@ -4008,14 +4770,18 @@
       <c r="Y107" s="7"/>
       <c r="Z107" s="7"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
+    <row r="108" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="10"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
@@ -4036,14 +4802,18 @@
       <c r="Y108" s="7"/>
       <c r="Z108" s="7"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
+    <row r="109" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="11"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
@@ -4065,13 +4835,27 @@
       <c r="Z109" s="7"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
+      <c r="A110" s="9">
+        <v>21</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
@@ -4093,13 +4877,17 @@
       <c r="Z110" s="7"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
@@ -4120,14 +4908,18 @@
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
+    <row r="112" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="10"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
@@ -4148,14 +4940,18 @@
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
+    <row r="113" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="10"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
@@ -4176,14 +4972,18 @@
       <c r="Y113" s="7"/>
       <c r="Z113" s="7"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
+    <row r="114" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="11"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
@@ -4205,13 +5005,27 @@
       <c r="Z114" s="7"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
+      <c r="A115" s="9">
+        <v>22</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
@@ -4233,13 +5047,17 @@
       <c r="Z115" s="7"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
@@ -4260,14 +5078,18 @@
       <c r="Y116" s="7"/>
       <c r="Z116" s="7"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
+    <row r="117" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="10"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
@@ -4288,14 +5110,18 @@
       <c r="Y117" s="7"/>
       <c r="Z117" s="7"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
+    <row r="118" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="10"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
@@ -4316,14 +5142,18 @@
       <c r="Y118" s="7"/>
       <c r="Z118" s="7"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
+    <row r="119" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="10"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
@@ -4344,14 +5174,18 @@
       <c r="Y119" s="7"/>
       <c r="Z119" s="7"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
+    <row r="120" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="10"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
@@ -4372,14 +5206,18 @@
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
+    <row r="121" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="11"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
@@ -4401,13 +5239,27 @@
       <c r="Z121" s="7"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
+      <c r="A122" s="9">
+        <v>23</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
@@ -4429,13 +5281,17 @@
       <c r="Z122" s="7"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
+      <c r="A123" s="10"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
@@ -4456,14 +5312,18 @@
       <c r="Y123" s="7"/>
       <c r="Z123" s="7"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
+    <row r="124" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="10"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
@@ -4484,14 +5344,18 @@
       <c r="Y124" s="7"/>
       <c r="Z124" s="7"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
+    <row r="125" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="10"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
@@ -4512,14 +5376,18 @@
       <c r="Y125" s="7"/>
       <c r="Z125" s="7"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
+    <row r="126" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="11"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
@@ -4541,13 +5409,25 @@
       <c r="Z126" s="7"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
+      <c r="A127" s="9">
+        <v>24</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
@@ -4568,14 +5448,18 @@
       <c r="Y127" s="7"/>
       <c r="Z127" s="7"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
+    <row r="128" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="11"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
@@ -4597,13 +5481,25 @@
       <c r="Z128" s="7"/>
     </row>
     <row r="129" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
+      <c r="A129" s="9">
+        <v>25</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
@@ -4624,14 +5520,18 @@
       <c r="Y129" s="7"/>
       <c r="Z129" s="7"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
+    <row r="130" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="11"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
@@ -4653,13 +5553,25 @@
       <c r="Z130" s="7"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
+      <c r="A131" s="9">
+        <v>26</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
@@ -4680,14 +5592,18 @@
       <c r="Y131" s="7"/>
       <c r="Z131" s="7"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
+    <row r="132" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="11"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
@@ -4709,13 +5625,25 @@
       <c r="Z132" s="7"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
+      <c r="A133" s="9">
+        <v>27</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
@@ -4736,14 +5664,18 @@
       <c r="Y133" s="7"/>
       <c r="Z133" s="7"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
+    <row r="134" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="10"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
@@ -4764,14 +5696,18 @@
       <c r="Y134" s="7"/>
       <c r="Z134" s="7"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
+    <row r="135" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="11"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
@@ -4793,13 +5729,25 @@
       <c r="Z135" s="7"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
+      <c r="A136" s="9">
+        <v>28</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
@@ -4820,14 +5768,18 @@
       <c r="Y136" s="7"/>
       <c r="Z136" s="7"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
+    <row r="137" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="10"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
@@ -4848,14 +5800,18 @@
       <c r="Y137" s="7"/>
       <c r="Z137" s="7"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
+    <row r="138" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="11"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
@@ -4877,13 +5833,25 @@
       <c r="Z138" s="7"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
+      <c r="A139" s="9">
+        <v>29</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
@@ -4904,14 +5872,18 @@
       <c r="Y139" s="7"/>
       <c r="Z139" s="7"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="7"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
+    <row r="140" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="11"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
@@ -4933,13 +5905,25 @@
       <c r="Z140" s="7"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="7"/>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
+      <c r="A141" s="9">
+        <v>30</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
@@ -4960,14 +5944,18 @@
       <c r="Y141" s="7"/>
       <c r="Z141" s="7"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="7"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
+    <row r="142" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="11"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
@@ -26296,64 +27284,664 @@
       <c r="Y903" s="7"/>
       <c r="Z903" s="7"/>
     </row>
+    <row r="904" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A904" s="7"/>
+      <c r="B904" s="7"/>
+      <c r="C904" s="7"/>
+      <c r="D904" s="7"/>
+      <c r="E904" s="7"/>
+      <c r="F904" s="7"/>
+      <c r="G904" s="7"/>
+      <c r="H904" s="7"/>
+      <c r="I904" s="7"/>
+      <c r="J904" s="7"/>
+      <c r="K904" s="7"/>
+      <c r="L904" s="7"/>
+      <c r="M904" s="7"/>
+      <c r="N904" s="7"/>
+      <c r="O904" s="7"/>
+      <c r="P904" s="7"/>
+      <c r="Q904" s="7"/>
+      <c r="R904" s="7"/>
+      <c r="S904" s="7"/>
+      <c r="T904" s="7"/>
+      <c r="U904" s="7"/>
+      <c r="V904" s="7"/>
+      <c r="W904" s="7"/>
+      <c r="X904" s="7"/>
+      <c r="Y904" s="7"/>
+      <c r="Z904" s="7"/>
+    </row>
+    <row r="905" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A905" s="7"/>
+      <c r="B905" s="7"/>
+      <c r="C905" s="7"/>
+      <c r="D905" s="7"/>
+      <c r="E905" s="7"/>
+      <c r="F905" s="7"/>
+      <c r="G905" s="7"/>
+      <c r="H905" s="7"/>
+      <c r="I905" s="7"/>
+      <c r="J905" s="7"/>
+      <c r="K905" s="7"/>
+      <c r="L905" s="7"/>
+      <c r="M905" s="7"/>
+      <c r="N905" s="7"/>
+      <c r="O905" s="7"/>
+      <c r="P905" s="7"/>
+      <c r="Q905" s="7"/>
+      <c r="R905" s="7"/>
+      <c r="S905" s="7"/>
+      <c r="T905" s="7"/>
+      <c r="U905" s="7"/>
+      <c r="V905" s="7"/>
+      <c r="W905" s="7"/>
+      <c r="X905" s="7"/>
+      <c r="Y905" s="7"/>
+      <c r="Z905" s="7"/>
+    </row>
+    <row r="906" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A906" s="7"/>
+      <c r="B906" s="7"/>
+      <c r="C906" s="7"/>
+      <c r="D906" s="7"/>
+      <c r="E906" s="7"/>
+      <c r="F906" s="7"/>
+      <c r="G906" s="7"/>
+      <c r="H906" s="7"/>
+      <c r="I906" s="7"/>
+      <c r="J906" s="7"/>
+      <c r="K906" s="7"/>
+      <c r="L906" s="7"/>
+      <c r="M906" s="7"/>
+      <c r="N906" s="7"/>
+      <c r="O906" s="7"/>
+      <c r="P906" s="7"/>
+      <c r="Q906" s="7"/>
+      <c r="R906" s="7"/>
+      <c r="S906" s="7"/>
+      <c r="T906" s="7"/>
+      <c r="U906" s="7"/>
+      <c r="V906" s="7"/>
+      <c r="W906" s="7"/>
+      <c r="X906" s="7"/>
+      <c r="Y906" s="7"/>
+      <c r="Z906" s="7"/>
+    </row>
+    <row r="907" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A907" s="7"/>
+      <c r="B907" s="7"/>
+      <c r="C907" s="7"/>
+      <c r="D907" s="7"/>
+      <c r="E907" s="7"/>
+      <c r="F907" s="7"/>
+      <c r="G907" s="7"/>
+      <c r="H907" s="7"/>
+      <c r="I907" s="7"/>
+      <c r="J907" s="7"/>
+      <c r="K907" s="7"/>
+      <c r="L907" s="7"/>
+      <c r="M907" s="7"/>
+      <c r="N907" s="7"/>
+      <c r="O907" s="7"/>
+      <c r="P907" s="7"/>
+      <c r="Q907" s="7"/>
+      <c r="R907" s="7"/>
+      <c r="S907" s="7"/>
+      <c r="T907" s="7"/>
+      <c r="U907" s="7"/>
+      <c r="V907" s="7"/>
+      <c r="W907" s="7"/>
+      <c r="X907" s="7"/>
+      <c r="Y907" s="7"/>
+      <c r="Z907" s="7"/>
+    </row>
+    <row r="908" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A908" s="7"/>
+      <c r="B908" s="7"/>
+      <c r="C908" s="7"/>
+      <c r="D908" s="7"/>
+      <c r="E908" s="7"/>
+      <c r="F908" s="7"/>
+      <c r="G908" s="7"/>
+      <c r="H908" s="7"/>
+      <c r="I908" s="7"/>
+      <c r="J908" s="7"/>
+      <c r="K908" s="7"/>
+      <c r="L908" s="7"/>
+      <c r="M908" s="7"/>
+      <c r="N908" s="7"/>
+      <c r="O908" s="7"/>
+      <c r="P908" s="7"/>
+      <c r="Q908" s="7"/>
+      <c r="R908" s="7"/>
+      <c r="S908" s="7"/>
+      <c r="T908" s="7"/>
+      <c r="U908" s="7"/>
+      <c r="V908" s="7"/>
+      <c r="W908" s="7"/>
+      <c r="X908" s="7"/>
+      <c r="Y908" s="7"/>
+      <c r="Z908" s="7"/>
+    </row>
+    <row r="909" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A909" s="7"/>
+      <c r="B909" s="7"/>
+      <c r="C909" s="7"/>
+      <c r="D909" s="7"/>
+      <c r="E909" s="7"/>
+      <c r="F909" s="7"/>
+      <c r="G909" s="7"/>
+      <c r="H909" s="7"/>
+      <c r="I909" s="7"/>
+      <c r="J909" s="7"/>
+      <c r="K909" s="7"/>
+      <c r="L909" s="7"/>
+      <c r="M909" s="7"/>
+      <c r="N909" s="7"/>
+      <c r="O909" s="7"/>
+      <c r="P909" s="7"/>
+      <c r="Q909" s="7"/>
+      <c r="R909" s="7"/>
+      <c r="S909" s="7"/>
+      <c r="T909" s="7"/>
+      <c r="U909" s="7"/>
+      <c r="V909" s="7"/>
+      <c r="W909" s="7"/>
+      <c r="X909" s="7"/>
+      <c r="Y909" s="7"/>
+      <c r="Z909" s="7"/>
+    </row>
+    <row r="910" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A910" s="7"/>
+      <c r="B910" s="7"/>
+      <c r="C910" s="7"/>
+      <c r="D910" s="7"/>
+      <c r="E910" s="7"/>
+      <c r="F910" s="7"/>
+      <c r="G910" s="7"/>
+      <c r="H910" s="7"/>
+      <c r="I910" s="7"/>
+      <c r="J910" s="7"/>
+      <c r="K910" s="7"/>
+      <c r="L910" s="7"/>
+      <c r="M910" s="7"/>
+      <c r="N910" s="7"/>
+      <c r="O910" s="7"/>
+      <c r="P910" s="7"/>
+      <c r="Q910" s="7"/>
+      <c r="R910" s="7"/>
+      <c r="S910" s="7"/>
+      <c r="T910" s="7"/>
+      <c r="U910" s="7"/>
+      <c r="V910" s="7"/>
+      <c r="W910" s="7"/>
+      <c r="X910" s="7"/>
+      <c r="Y910" s="7"/>
+      <c r="Z910" s="7"/>
+    </row>
+    <row r="911" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A911" s="7"/>
+      <c r="B911" s="7"/>
+      <c r="C911" s="7"/>
+      <c r="D911" s="7"/>
+      <c r="E911" s="7"/>
+      <c r="F911" s="7"/>
+      <c r="G911" s="7"/>
+      <c r="H911" s="7"/>
+      <c r="I911" s="7"/>
+      <c r="J911" s="7"/>
+      <c r="K911" s="7"/>
+      <c r="L911" s="7"/>
+      <c r="M911" s="7"/>
+      <c r="N911" s="7"/>
+      <c r="O911" s="7"/>
+      <c r="P911" s="7"/>
+      <c r="Q911" s="7"/>
+      <c r="R911" s="7"/>
+      <c r="S911" s="7"/>
+      <c r="T911" s="7"/>
+      <c r="U911" s="7"/>
+      <c r="V911" s="7"/>
+      <c r="W911" s="7"/>
+      <c r="X911" s="7"/>
+      <c r="Y911" s="7"/>
+      <c r="Z911" s="7"/>
+    </row>
+    <row r="912" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A912" s="7"/>
+      <c r="B912" s="7"/>
+      <c r="C912" s="7"/>
+      <c r="D912" s="7"/>
+      <c r="E912" s="7"/>
+      <c r="F912" s="7"/>
+      <c r="G912" s="7"/>
+      <c r="H912" s="7"/>
+      <c r="I912" s="7"/>
+      <c r="J912" s="7"/>
+      <c r="K912" s="7"/>
+      <c r="L912" s="7"/>
+      <c r="M912" s="7"/>
+      <c r="N912" s="7"/>
+      <c r="O912" s="7"/>
+      <c r="P912" s="7"/>
+      <c r="Q912" s="7"/>
+      <c r="R912" s="7"/>
+      <c r="S912" s="7"/>
+      <c r="T912" s="7"/>
+      <c r="U912" s="7"/>
+      <c r="V912" s="7"/>
+      <c r="W912" s="7"/>
+      <c r="X912" s="7"/>
+      <c r="Y912" s="7"/>
+      <c r="Z912" s="7"/>
+    </row>
+    <row r="913" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A913" s="7"/>
+      <c r="B913" s="7"/>
+      <c r="C913" s="7"/>
+      <c r="D913" s="7"/>
+      <c r="E913" s="7"/>
+      <c r="F913" s="7"/>
+      <c r="G913" s="7"/>
+      <c r="H913" s="7"/>
+      <c r="I913" s="7"/>
+      <c r="J913" s="7"/>
+      <c r="K913" s="7"/>
+      <c r="L913" s="7"/>
+      <c r="M913" s="7"/>
+      <c r="N913" s="7"/>
+      <c r="O913" s="7"/>
+      <c r="P913" s="7"/>
+      <c r="Q913" s="7"/>
+      <c r="R913" s="7"/>
+      <c r="S913" s="7"/>
+      <c r="T913" s="7"/>
+      <c r="U913" s="7"/>
+      <c r="V913" s="7"/>
+      <c r="W913" s="7"/>
+      <c r="X913" s="7"/>
+      <c r="Y913" s="7"/>
+      <c r="Z913" s="7"/>
+    </row>
+    <row r="914" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A914" s="7"/>
+      <c r="B914" s="7"/>
+      <c r="C914" s="7"/>
+      <c r="D914" s="7"/>
+      <c r="E914" s="7"/>
+      <c r="F914" s="7"/>
+      <c r="G914" s="7"/>
+      <c r="H914" s="7"/>
+      <c r="I914" s="7"/>
+      <c r="J914" s="7"/>
+      <c r="K914" s="7"/>
+      <c r="L914" s="7"/>
+      <c r="M914" s="7"/>
+      <c r="N914" s="7"/>
+      <c r="O914" s="7"/>
+      <c r="P914" s="7"/>
+      <c r="Q914" s="7"/>
+      <c r="R914" s="7"/>
+      <c r="S914" s="7"/>
+      <c r="T914" s="7"/>
+      <c r="U914" s="7"/>
+      <c r="V914" s="7"/>
+      <c r="W914" s="7"/>
+      <c r="X914" s="7"/>
+      <c r="Y914" s="7"/>
+      <c r="Z914" s="7"/>
+    </row>
+    <row r="915" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A915" s="7"/>
+      <c r="B915" s="7"/>
+      <c r="C915" s="7"/>
+      <c r="D915" s="7"/>
+      <c r="E915" s="7"/>
+      <c r="F915" s="7"/>
+      <c r="G915" s="7"/>
+      <c r="H915" s="7"/>
+      <c r="I915" s="7"/>
+      <c r="J915" s="7"/>
+      <c r="K915" s="7"/>
+      <c r="L915" s="7"/>
+      <c r="M915" s="7"/>
+      <c r="N915" s="7"/>
+      <c r="O915" s="7"/>
+      <c r="P915" s="7"/>
+      <c r="Q915" s="7"/>
+      <c r="R915" s="7"/>
+      <c r="S915" s="7"/>
+      <c r="T915" s="7"/>
+      <c r="U915" s="7"/>
+      <c r="V915" s="7"/>
+      <c r="W915" s="7"/>
+      <c r="X915" s="7"/>
+      <c r="Y915" s="7"/>
+      <c r="Z915" s="7"/>
+    </row>
+    <row r="916" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A916" s="7"/>
+      <c r="B916" s="7"/>
+      <c r="C916" s="7"/>
+      <c r="D916" s="7"/>
+      <c r="E916" s="7"/>
+      <c r="F916" s="7"/>
+      <c r="G916" s="7"/>
+      <c r="H916" s="7"/>
+      <c r="I916" s="7"/>
+      <c r="J916" s="7"/>
+      <c r="K916" s="7"/>
+      <c r="L916" s="7"/>
+      <c r="M916" s="7"/>
+      <c r="N916" s="7"/>
+      <c r="O916" s="7"/>
+      <c r="P916" s="7"/>
+      <c r="Q916" s="7"/>
+      <c r="R916" s="7"/>
+      <c r="S916" s="7"/>
+      <c r="T916" s="7"/>
+      <c r="U916" s="7"/>
+      <c r="V916" s="7"/>
+      <c r="W916" s="7"/>
+      <c r="X916" s="7"/>
+      <c r="Y916" s="7"/>
+      <c r="Z916" s="7"/>
+    </row>
+    <row r="917" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A917" s="7"/>
+      <c r="B917" s="7"/>
+      <c r="C917" s="7"/>
+      <c r="D917" s="7"/>
+      <c r="E917" s="7"/>
+      <c r="F917" s="7"/>
+      <c r="G917" s="7"/>
+      <c r="H917" s="7"/>
+      <c r="I917" s="7"/>
+      <c r="J917" s="7"/>
+      <c r="K917" s="7"/>
+      <c r="L917" s="7"/>
+      <c r="M917" s="7"/>
+      <c r="N917" s="7"/>
+      <c r="O917" s="7"/>
+      <c r="P917" s="7"/>
+      <c r="Q917" s="7"/>
+      <c r="R917" s="7"/>
+      <c r="S917" s="7"/>
+      <c r="T917" s="7"/>
+      <c r="U917" s="7"/>
+      <c r="V917" s="7"/>
+      <c r="W917" s="7"/>
+      <c r="X917" s="7"/>
+      <c r="Y917" s="7"/>
+      <c r="Z917" s="7"/>
+    </row>
+    <row r="918" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A918" s="7"/>
+      <c r="B918" s="7"/>
+      <c r="C918" s="7"/>
+      <c r="D918" s="7"/>
+      <c r="E918" s="7"/>
+      <c r="F918" s="7"/>
+      <c r="G918" s="7"/>
+      <c r="H918" s="7"/>
+      <c r="I918" s="7"/>
+      <c r="J918" s="7"/>
+      <c r="K918" s="7"/>
+      <c r="L918" s="7"/>
+      <c r="M918" s="7"/>
+      <c r="N918" s="7"/>
+      <c r="O918" s="7"/>
+      <c r="P918" s="7"/>
+      <c r="Q918" s="7"/>
+      <c r="R918" s="7"/>
+      <c r="S918" s="7"/>
+      <c r="T918" s="7"/>
+      <c r="U918" s="7"/>
+      <c r="V918" s="7"/>
+      <c r="W918" s="7"/>
+      <c r="X918" s="7"/>
+      <c r="Y918" s="7"/>
+      <c r="Z918" s="7"/>
+    </row>
+    <row r="919" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A919" s="7"/>
+      <c r="B919" s="7"/>
+      <c r="C919" s="7"/>
+      <c r="D919" s="7"/>
+      <c r="E919" s="7"/>
+      <c r="F919" s="7"/>
+      <c r="G919" s="7"/>
+      <c r="H919" s="7"/>
+      <c r="I919" s="7"/>
+      <c r="J919" s="7"/>
+      <c r="K919" s="7"/>
+      <c r="L919" s="7"/>
+      <c r="M919" s="7"/>
+      <c r="N919" s="7"/>
+      <c r="O919" s="7"/>
+      <c r="P919" s="7"/>
+      <c r="Q919" s="7"/>
+      <c r="R919" s="7"/>
+      <c r="S919" s="7"/>
+      <c r="T919" s="7"/>
+      <c r="U919" s="7"/>
+      <c r="V919" s="7"/>
+      <c r="W919" s="7"/>
+      <c r="X919" s="7"/>
+      <c r="Y919" s="7"/>
+      <c r="Z919" s="7"/>
+    </row>
+    <row r="920" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A920" s="7"/>
+      <c r="B920" s="7"/>
+      <c r="C920" s="7"/>
+      <c r="D920" s="7"/>
+      <c r="E920" s="7"/>
+      <c r="F920" s="7"/>
+      <c r="G920" s="7"/>
+      <c r="H920" s="7"/>
+      <c r="I920" s="7"/>
+      <c r="J920" s="7"/>
+      <c r="K920" s="7"/>
+      <c r="L920" s="7"/>
+      <c r="M920" s="7"/>
+      <c r="N920" s="7"/>
+      <c r="O920" s="7"/>
+      <c r="P920" s="7"/>
+      <c r="Q920" s="7"/>
+      <c r="R920" s="7"/>
+      <c r="S920" s="7"/>
+      <c r="T920" s="7"/>
+      <c r="U920" s="7"/>
+      <c r="V920" s="7"/>
+      <c r="W920" s="7"/>
+      <c r="X920" s="7"/>
+      <c r="Y920" s="7"/>
+      <c r="Z920" s="7"/>
+    </row>
+    <row r="921" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A921" s="7"/>
+      <c r="B921" s="7"/>
+      <c r="C921" s="7"/>
+      <c r="D921" s="7"/>
+      <c r="E921" s="7"/>
+      <c r="F921" s="7"/>
+      <c r="G921" s="7"/>
+      <c r="H921" s="7"/>
+      <c r="I921" s="7"/>
+      <c r="J921" s="7"/>
+      <c r="K921" s="7"/>
+      <c r="L921" s="7"/>
+      <c r="M921" s="7"/>
+      <c r="N921" s="7"/>
+      <c r="O921" s="7"/>
+      <c r="P921" s="7"/>
+      <c r="Q921" s="7"/>
+      <c r="R921" s="7"/>
+      <c r="S921" s="7"/>
+      <c r="T921" s="7"/>
+      <c r="U921" s="7"/>
+      <c r="V921" s="7"/>
+      <c r="W921" s="7"/>
+      <c r="X921" s="7"/>
+      <c r="Y921" s="7"/>
+      <c r="Z921" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
+  <mergeCells count="150">
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="E136:E138"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="D133:D135"/>
+    <mergeCell ref="E133:E135"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="E122:E126"/>
+    <mergeCell ref="A115:A121"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="C115:C121"/>
+    <mergeCell ref="D115:D121"/>
+    <mergeCell ref="E115:E121"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="E110:E114"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="B103:B109"/>
+    <mergeCell ref="C103:C109"/>
+    <mergeCell ref="D103:D109"/>
+    <mergeCell ref="E103:E109"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="E98:E102"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="E93:E97"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="E88:E92"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="D67:D73"/>
+    <mergeCell ref="E67:E73"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="E55:E62"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="D49:D54"/>
+    <mergeCell ref="E49:E54"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="E38:E44"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="E5:E12"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>